--- a/biology/Biologie cellulaire et moléculaire/Tampon_TBE/Tampon_TBE.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Tampon_TBE/Tampon_TBE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tampon TBE (pour tris, borate, EDTA) est un tampon de migration utilisé en électrophorèse et composé de tris, d'acide borique et d'EDTA.
 </t>
@@ -511,7 +523,9 @@
           <t>Concentration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>TBE 10x : solution mère concentrée dix fois, à diluer pour obtenir la concentration désirée.
 TBE 0,5x : solution prête à l'emploi.</t>
@@ -542,7 +556,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour la préparation d'un tampon TBE (1x) au pH 8,0 peser :
 10,78 g (89 mmol) de tris (CAS#37186) ;
@@ -578,7 +594,9 @@
           <t>Données sécurité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Classe de danger Xi (irritant)
 Phrases de risque 36/37/38
